--- a/samples/attendance_sample.xlsx
+++ b/samples/attendance_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lokesh Vyas\Downloads\New folder\leave-productivity-analyzer\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\leave-productivity-analyzer\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CBABF0-91FF-4A29-BEA6-C0E91B41D3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C12F044-7555-46D7-B406-CF94F1E11166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/samples/attendance_sample.xlsx
+++ b/samples/attendance_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\leave-productivity-analyzer\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lokesh Vyas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C12F044-7555-46D7-B406-CF94F1E11166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D85D122-590B-49AB-B787-C83A3F8AEE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="22">
   <si>
     <t>Employee Name</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>In Time</t>
-  </si>
-  <si>
-    <t>Out Time</t>
-  </si>
-  <si>
     <t>Is Leave</t>
   </si>
   <si>
@@ -43,9 +37,6 @@
     <t>2025-02-01</t>
   </si>
   <si>
-    <t>09:30</t>
-  </si>
-  <si>
     <t>18:30</t>
   </si>
   <si>
@@ -89,6 +80,12 @@
   </si>
   <si>
     <t>Neha Patel</t>
+  </si>
+  <si>
+    <t>In-Time</t>
+  </si>
+  <si>
+    <t>Out-Time</t>
   </si>
 </sst>
 </file>
@@ -124,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +429,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,645 +445,645 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
         <v>7</v>
       </c>
+      <c r="C13" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
         <v>7</v>
       </c>
+      <c r="C23" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
         <v>7</v>
       </c>
+      <c r="C33" s="1">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
